--- a/data/trans_dic/P5_6-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P5_6-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que disfruta de luz natural suficiente en su vivienda</t>
+          <t>Población que disfruta de luz natural suficiente en su vivienda (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -606,7 +607,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>92,08%</t>
+          <t>91,64%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -616,7 +617,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>92,85%</t>
+          <t>92,82%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -626,7 +627,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>92,48%</t>
+          <t>92,26%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>92,57; 96,05</t>
+          <t>92,61; 95,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>87,56; 94,39</t>
+          <t>86,35; 94,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>92,35; 95,55</t>
+          <t>92,28; 95,67</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>90,47; 94,6</t>
+          <t>90,41; 94,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>93,0; 95,43</t>
+          <t>92,92; 95,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>89,83; 94,07</t>
+          <t>89,65; 93,81</t>
         </is>
       </c>
     </row>
@@ -686,7 +687,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>94,84%</t>
+          <t>94,62%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -696,7 +697,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>95,45%</t>
+          <t>95,48%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -706,7 +707,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>95,15%</t>
+          <t>95,05%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>94,7; 98,26</t>
+          <t>94,36; 98,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>92,04; 96,69</t>
+          <t>91,78; 96,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>95,0; 98,07</t>
+          <t>95,04; 98,07</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>92,96; 96,97</t>
+          <t>93,37; 97,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>95,64; 97,83</t>
+          <t>95,6; 97,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>93,54; 96,48</t>
+          <t>93,46; 96,34</t>
         </is>
       </c>
     </row>
@@ -766,7 +767,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>94,12%</t>
+          <t>94,57%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -776,7 +777,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>90,19%</t>
+          <t>90,79%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -786,7 +787,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>92,18%</t>
+          <t>92,71%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>93,17; 99,29</t>
+          <t>93,92; 99,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>88,22; 97,63</t>
+          <t>88,98; 97,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>89,79; 96,76</t>
+          <t>89,77; 97,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>83,13; 94,77</t>
+          <t>84,87; 94,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>93,11; 97,6</t>
+          <t>93,27; 97,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>87,56; 95,3</t>
+          <t>89,26; 95,38</t>
         </is>
       </c>
     </row>
@@ -846,7 +847,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>93,43%</t>
+          <t>93,19%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -856,7 +857,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>93,55%</t>
+          <t>93,61%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -866,7 +867,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>93,49%</t>
+          <t>93,4%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>94,52; 96,75</t>
+          <t>94,47; 96,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>90,87; 94,89</t>
+          <t>90,29; 94,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>94,17; 96,21</t>
+          <t>93,97; 96,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>91,85; 94,76</t>
+          <t>92,07; 94,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>94,56; 96,17</t>
+          <t>94,65; 96,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>92,15; 94,53</t>
+          <t>92,0; 94,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -921,4 +929,595 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que disfruta de luz natural suficiente en su vivienda (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>631.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>538.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>750.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>647.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1381.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1185.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1548053</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1514476</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1686465</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1679437</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>3234518</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>3193913</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1518809; 1573856</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1426989; 1556243</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1652726; 1713530</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1635846; 1710517</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>3188091; 3271496</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>3103523; 3247749</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>533.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>435.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>610.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>493.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1143.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>928.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1343777</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1300152</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1366468</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1328553</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2710246</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>2628705</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1308457; 1361078</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1261164; 1323704</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1339882; 1382631</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1299153; 1353015</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2673513; 2734439</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>2584598; 2664218</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>165.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>291.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>237.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>411453</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>399854</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>386973</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>373970</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>798426</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>773824</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>397111; 420010</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>376207; 412837</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>369749; 399580</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>349560; 389885</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>778554; 814420</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>745100; 796165</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1290.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1082.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1525.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1268.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2815.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>2350.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>3303284</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>3214482</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>3439906</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>3381960</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>6743190</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>6596442</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>3258718; 3337116</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>3114684; 3268076</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>3394943; 3472806</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>3326204; 3426073</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>6684334; 6795707</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>6497118; 6665571</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>